--- a/I2CPWM.xlsx
+++ b/I2CPWM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C2PWM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C64891-6248-4065-9113-5140ED83BBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0E315A-56B2-41C9-B58C-BE406EB71CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1215" windowWidth="25185" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8115" yWindow="1530" windowWidth="19665" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
@@ -354,20 +354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PU100k</t>
-  </si>
-  <si>
-    <t>PU100k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PD100k</t>
-  </si>
-  <si>
-    <t>PD100k</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PWM7/GPI7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -645,6 +631,22 @@
   </si>
   <si>
     <t>MG92B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PU10k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PU10k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD10k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD10k</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1503,7 +1505,7 @@
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1610,20 +1612,20 @@
         <v>25</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
@@ -1645,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1656,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -1678,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="15"/>
@@ -1691,7 +1693,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>5</v>
@@ -1713,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1724,7 +1726,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>4</v>
@@ -1746,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
@@ -1759,7 +1761,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -1781,18 +1783,18 @@
         <v>25</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1843,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
@@ -1884,13 +1886,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>26</v>
@@ -1938,7 +1940,7 @@
   <dimension ref="B2:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1966,36 +1968,36 @@
     </row>
     <row r="3" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
@@ -2003,27 +2005,27 @@
       <c r="C5" s="54"/>
       <c r="D5" s="60"/>
       <c r="E5" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
@@ -2031,10 +2033,10 @@
       <c r="C7" s="54"/>
       <c r="D7" s="55"/>
       <c r="E7" s="41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
@@ -2042,10 +2044,10 @@
       <c r="C8" s="54"/>
       <c r="D8" s="53"/>
       <c r="E8" s="41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
@@ -2053,10 +2055,10 @@
       <c r="C9" s="54"/>
       <c r="D9" s="53"/>
       <c r="E9" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
@@ -2064,10 +2066,10 @@
       <c r="C10" s="54"/>
       <c r="D10" s="53"/>
       <c r="E10" s="41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
@@ -2075,10 +2077,10 @@
       <c r="C11" s="54"/>
       <c r="D11" s="53"/>
       <c r="E11" s="41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
@@ -2086,10 +2088,10 @@
       <c r="C12" s="58"/>
       <c r="D12" s="57"/>
       <c r="E12" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
@@ -2106,7 +2108,7 @@
         <v>71</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
@@ -2117,7 +2119,7 @@
         <v>72</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
@@ -2128,7 +2130,7 @@
         <v>73</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -2139,7 +2141,7 @@
         <v>74</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -2150,7 +2152,7 @@
         <v>75</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -2161,7 +2163,7 @@
         <v>76</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -2172,7 +2174,7 @@
         <v>77</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
@@ -2183,7 +2185,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -2332,13 +2334,13 @@
         <v>41</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
@@ -2349,7 +2351,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
@@ -2357,10 +2359,10 @@
       <c r="C31" s="35"/>
       <c r="D31" s="43"/>
       <c r="E31" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2377,7 @@
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2392,31 +2394,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="I3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" t="s">
         <v>140</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -2431,7 +2433,7 @@
         <v>64000</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E4" s="63">
         <v>0.05</v>
@@ -2453,13 +2455,13 @@
         <v>4.6875E-2</v>
       </c>
       <c r="J4" s="62">
-        <f>I4/$E$21*100</f>
+        <f t="shared" ref="J4:J18" si="1">I4/$E$21*100</f>
         <v>1.171875</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" s="63">
         <v>4</v>
@@ -2481,13 +2483,13 @@
         <v>4</v>
       </c>
       <c r="J5" s="62">
-        <f>I5/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D6" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E6" s="63">
         <v>20</v>
@@ -2509,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="62">
-        <f>I6/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2526,11 +2528,11 @@
         <v>32</v>
       </c>
       <c r="G7" s="66">
-        <f t="shared" ref="G7:G12" si="1">FLOOR(F7+0.5,1)-2</f>
+        <f t="shared" ref="G7:G12" si="2">FLOOR(F7+0.5,1)-2</f>
         <v>30</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" ref="H7:H12" si="2">DEC2HEX(G7,4)</f>
+        <f t="shared" ref="H7:H12" si="3">DEC2HEX(G7,4)</f>
         <v>001E</v>
       </c>
       <c r="I7" s="65">
@@ -2538,13 +2540,13 @@
         <v>0.5</v>
       </c>
       <c r="J7" s="67">
-        <f>I7/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" s="41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2553,15 +2555,15 @@
         <v>1.45</v>
       </c>
       <c r="F8" s="69">
-        <f t="shared" ref="F8:F9" si="3">E8/1000*$C$4</f>
+        <f>E8/1000*$C$4</f>
         <v>92.8</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>005B</v>
       </c>
       <c r="I8" s="69">
@@ -2569,7 +2571,7 @@
         <v>1.453125</v>
       </c>
       <c r="J8" s="70">
-        <f>I8/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>36.328125</v>
       </c>
     </row>
@@ -2582,15 +2584,15 @@
         <v>2.4</v>
       </c>
       <c r="F9" s="72">
+        <f>E9/1000*$C$4</f>
+        <v>153.6</v>
+      </c>
+      <c r="G9" s="73">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="H9" s="49" t="str">
         <f t="shared" si="3"/>
-        <v>153.6</v>
-      </c>
-      <c r="G9" s="73">
-        <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="H9" s="49" t="str">
-        <f t="shared" si="2"/>
         <v>0098</v>
       </c>
       <c r="I9" s="72">
@@ -2598,7 +2600,7 @@
         <v>2.40625</v>
       </c>
       <c r="J9" s="74">
-        <f>I9/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>60.15625</v>
       </c>
     </row>
@@ -2615,11 +2617,11 @@
         <v>44.8</v>
       </c>
       <c r="G10" s="66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>002B</v>
       </c>
       <c r="I10" s="65">
@@ -2627,13 +2629,13 @@
         <v>0.703125</v>
       </c>
       <c r="J10" s="67">
-        <f>I10/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>17.578125</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" s="41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2642,15 +2644,15 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="69">
-        <f t="shared" ref="F11:F12" si="4">E11/1000*$C$4</f>
+        <f>E11/1000*$C$4</f>
         <v>96</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>005E</v>
       </c>
       <c r="I11" s="69">
@@ -2658,7 +2660,7 @@
         <v>1.5</v>
       </c>
       <c r="J11" s="70">
-        <f>I11/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
@@ -2671,15 +2673,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F12" s="72">
-        <f t="shared" si="4"/>
+        <f>E12/1000*$C$4</f>
         <v>147.19999999999999</v>
       </c>
       <c r="G12" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="H12" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0091</v>
       </c>
       <c r="I12" s="72">
@@ -2687,7 +2689,7 @@
         <v>2.296875</v>
       </c>
       <c r="J12" s="74">
-        <f>I12/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>57.421875</v>
       </c>
     </row>
@@ -2704,11 +2706,11 @@
         <v>32</v>
       </c>
       <c r="G13" s="66">
-        <f t="shared" ref="G13:G15" si="5">FLOOR(F13+0.5,1)-2</f>
+        <f t="shared" ref="G13:G15" si="4">FLOOR(F13+0.5,1)-2</f>
         <v>30</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f t="shared" ref="H13:H15" si="6">DEC2HEX(G13,4)</f>
+        <f t="shared" ref="H13:H15" si="5">DEC2HEX(G13,4)</f>
         <v>001E</v>
       </c>
       <c r="I13" s="65">
@@ -2716,13 +2718,13 @@
         <v>0.5</v>
       </c>
       <c r="J13" s="67">
-        <f>I13/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C14" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2732,15 +2734,15 @@
         <v>1.45</v>
       </c>
       <c r="F14" s="69">
-        <f t="shared" ref="F14:F15" si="7">E14/1000*$C$4</f>
+        <f>E14/1000*$C$4</f>
         <v>92.8</v>
       </c>
       <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="H14" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>005B</v>
       </c>
       <c r="I14" s="69">
@@ -2748,7 +2750,7 @@
         <v>1.453125</v>
       </c>
       <c r="J14" s="70">
-        <f>I14/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>36.328125</v>
       </c>
     </row>
@@ -2761,15 +2763,15 @@
         <v>2.4</v>
       </c>
       <c r="F15" s="72">
-        <f t="shared" si="7"/>
+        <f>E15/1000*$C$4</f>
         <v>153.6</v>
       </c>
       <c r="G15" s="73">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="H15" s="49" t="str">
         <f t="shared" si="5"/>
-        <v>152</v>
-      </c>
-      <c r="H15" s="49" t="str">
-        <f t="shared" si="6"/>
         <v>0098</v>
       </c>
       <c r="I15" s="72">
@@ -2777,14 +2779,14 @@
         <v>2.40625</v>
       </c>
       <c r="J15" s="74">
-        <f>I15/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>60.15625</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C16" s="37"/>
       <c r="D16" s="75" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E16" s="64">
         <v>0.5</v>
@@ -2794,11 +2796,11 @@
         <v>32</v>
       </c>
       <c r="G16" s="66">
-        <f t="shared" ref="G16:G18" si="8">FLOOR(F16+0.5,1)-2</f>
+        <f t="shared" ref="G16:G18" si="6">FLOOR(F16+0.5,1)-2</f>
         <v>30</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" ref="H16:H18" si="9">DEC2HEX(G16,4)</f>
+        <f t="shared" ref="H16:H18" si="7">DEC2HEX(G16,4)</f>
         <v>001E</v>
       </c>
       <c r="I16" s="65">
@@ -2806,30 +2808,30 @@
         <v>0.5</v>
       </c>
       <c r="J16" s="67">
-        <f>I16/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C17" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E17" s="68">
         <v>1.5</v>
       </c>
       <c r="F17" s="69">
-        <f t="shared" ref="F17:F18" si="10">E17/1000*$C$4</f>
+        <f>E17/1000*$C$4</f>
         <v>96</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>005E</v>
       </c>
       <c r="I17" s="69">
@@ -2837,30 +2839,30 @@
         <v>1.5</v>
       </c>
       <c r="J17" s="70">
-        <f>I17/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C18" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E18" s="71">
         <v>2.5</v>
       </c>
       <c r="F18" s="72">
-        <f t="shared" si="10"/>
+        <f>E18/1000*$C$4</f>
         <v>160</v>
       </c>
       <c r="G18" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="H18" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>009E</v>
       </c>
       <c r="I18" s="72">
@@ -2868,7 +2870,7 @@
         <v>2.5</v>
       </c>
       <c r="J18" s="74">
-        <f>I18/$E$21*100</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
     </row>
@@ -2877,16 +2879,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">

--- a/I2CPWM.xlsx
+++ b/I2CPWM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C2PWM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0E315A-56B2-41C9-B58C-BE406EB71CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3967641-432E-4A93-BC4C-9E2C326C33A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8115" yWindow="1530" windowWidth="19665" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="2205" windowWidth="19470" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="165">
   <si>
     <t>IO11</t>
   </si>
@@ -226,20 +226,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x5B</t>
-  </si>
-  <si>
-    <t>0x5B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[7:0]</t>
   </si>
   <si>
-    <t>on time of PWM0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>on time of PWM1</t>
   </si>
   <si>
@@ -545,15 +534,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OSC1[Hz]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OUT/8[Hz]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -647,6 +628,49 @@
   </si>
   <si>
     <t>PD10k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLK/8[Hz]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM0 max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min pulse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x7C</t>
+  </si>
+  <si>
+    <t>0x7D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on time of PWM0[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on time of PWM0[15:0]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1546,7 +1570,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="46"/>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -1612,20 +1636,20 @@
         <v>25</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>14</v>
@@ -1647,18 +1671,18 @@
         <v>25</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -1680,20 +1704,20 @@
         <v>25</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>5</v>
@@ -1715,18 +1739,18 @@
         <v>25</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>4</v>
@@ -1748,20 +1772,20 @@
         <v>25</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -1783,18 +1807,18 @@
         <v>25</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1845,7 +1869,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
@@ -1881,18 +1905,18 @@
         <v>25</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>26</v>
@@ -1937,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1968,36 +1992,36 @@
     </row>
     <row r="3" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
@@ -2005,27 +2029,27 @@
       <c r="C5" s="54"/>
       <c r="D5" s="60"/>
       <c r="E5" s="41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
@@ -2033,10 +2057,10 @@
       <c r="C7" s="54"/>
       <c r="D7" s="55"/>
       <c r="E7" s="41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
@@ -2044,10 +2068,10 @@
       <c r="C8" s="54"/>
       <c r="D8" s="53"/>
       <c r="E8" s="41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
@@ -2055,10 +2079,10 @@
       <c r="C9" s="54"/>
       <c r="D9" s="53"/>
       <c r="E9" s="41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
@@ -2066,10 +2090,10 @@
       <c r="C10" s="54"/>
       <c r="D10" s="53"/>
       <c r="E10" s="41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
@@ -2077,10 +2101,10 @@
       <c r="C11" s="54"/>
       <c r="D11" s="53"/>
       <c r="E11" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
@@ -2088,27 +2112,27 @@
       <c r="C12" s="58"/>
       <c r="D12" s="57"/>
       <c r="E12" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>71</v>
-      </c>
       <c r="F13" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
@@ -2116,10 +2140,10 @@
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
@@ -2127,10 +2151,10 @@
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -2138,10 +2162,10 @@
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -2149,10 +2173,10 @@
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -2160,10 +2184,10 @@
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -2171,10 +2195,10 @@
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
@@ -2182,10 +2206,10 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -2196,173 +2220,190 @@
         <v>41</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="44"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="39" t="s">
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C27" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="36" t="s">
+      <c r="F27" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="33" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="C28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="36" t="s">
+      <c r="F28" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="37" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="35" t="s">
+      <c r="C29" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="F29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="39" t="s">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="33" t="s">
+      <c r="C30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="39" t="s">
-        <v>94</v>
-      </c>
       <c r="F31" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2374,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11054A3-667C-4815-9D98-A54AF56D47D3}">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2387,6 +2428,7 @@
     <col min="4" max="4" width="10.25" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="46"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2394,31 +2436,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="H3" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -2426,93 +2471,93 @@
         <v>2048000</v>
       </c>
       <c r="B4" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="46">
         <f>A4/B4/8</f>
-        <v>64000</v>
+        <v>128000</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E4" s="63">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="62">
-        <f>E4/1000*$C$4</f>
-        <v>3.2</v>
+        <f t="shared" ref="F4:F18" si="0">(E4-$F$22)/1000*$C$4</f>
+        <v>2.7199999999999918</v>
       </c>
       <c r="G4">
         <f>FLOOR(F4+0.5,1)-2</f>
         <v>1</v>
       </c>
       <c r="H4" s="46" t="str">
-        <f>DEC2HEX(G4,4)</f>
-        <v>0001</v>
+        <f>DEC2HEX(MIN(G4,255),2)</f>
+        <v>01</v>
       </c>
       <c r="I4" s="62">
-        <f t="shared" ref="I4:I18" si="0">1000/$C$4*(HEX2DEC(H4)+2)</f>
-        <v>4.6875E-2</v>
+        <f>1000/$C$4*(HEX2DEC(H4)+2)+$F$22</f>
+        <v>0.49218750000000006</v>
       </c>
       <c r="J4" s="62">
-        <f t="shared" ref="J4:J18" si="1">I4/$E$21*100</f>
-        <v>1.171875</v>
+        <f t="shared" ref="J4:J18" si="1">I4/$F$21</f>
+        <v>2.3863636363636361E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D5" s="15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E5" s="63">
-        <v>4</v>
+        <v>2.48</v>
       </c>
       <c r="F5" s="62">
-        <f>E5/1000*$C$4</f>
-        <v>256</v>
+        <f t="shared" si="0"/>
+        <v>257.44</v>
       </c>
       <c r="G5">
         <f>FLOOR(F5+0.5,1)-2</f>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H5" s="46" t="str">
-        <f>DEC2HEX(G5,4)</f>
-        <v>00FE</v>
+        <f t="shared" ref="H5:H18" si="2">DEC2HEX(MIN(G5,255),2)</f>
+        <v>FF</v>
       </c>
       <c r="I5" s="62">
-        <f>1000/$C$4*(HEX2DEC(H5)+2)</f>
-        <v>4</v>
+        <f t="shared" ref="I5:I18" si="3">1000/$C$4*(HEX2DEC(H5)+2)+$F$22</f>
+        <v>2.4765625</v>
       </c>
       <c r="J5" s="62">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0.12007575757575756</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D6" s="15" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E6" s="63">
-        <v>20</v>
+        <v>20.63</v>
       </c>
       <c r="F6" s="62">
-        <f>E6/1000*$C$4</f>
-        <v>1280</v>
+        <f t="shared" si="0"/>
+        <v>2580.64</v>
       </c>
       <c r="G6">
         <f>FLOOR(F6+0.5,1)-2</f>
-        <v>1278</v>
+        <v>2579</v>
       </c>
       <c r="H6" s="46" t="str">
-        <f>DEC2HEX(G6,4)</f>
-        <v>04FE</v>
+        <f>DEC2HEX(MIN(G6,65535),4)</f>
+        <v>0A13</v>
       </c>
       <c r="I6" s="62">
-        <f>1000/$C$4*(HEX2DEC(H6)+2)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>20.6328125</v>
       </c>
       <c r="J6" s="62">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>1.0003787878787878</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -2524,29 +2569,29 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="65">
-        <f>E7/1000*$C$4</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>3.9999999999999933</v>
       </c>
       <c r="G7" s="66">
-        <f t="shared" ref="G7:G12" si="2">FLOOR(F7+0.5,1)-2</f>
-        <v>30</v>
+        <f t="shared" ref="G7:G12" si="4">FLOOR(F7+0.5,1)-2</f>
+        <v>2</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f t="shared" ref="H7:H12" si="3">DEC2HEX(G7,4)</f>
-        <v>001E</v>
+        <f t="shared" si="2"/>
+        <v>02</v>
       </c>
       <c r="I7" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="J7" s="67">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>2.4242424242424239E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" s="41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2555,24 +2600,24 @@
         <v>1.45</v>
       </c>
       <c r="F8" s="69">
-        <f>E8/1000*$C$4</f>
-        <v>92.8</v>
+        <f t="shared" si="0"/>
+        <v>125.6</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="H8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="H8" s="2" t="str">
+        <v>7C</v>
+      </c>
+      <c r="I8" s="69">
         <f t="shared" si="3"/>
-        <v>005B</v>
-      </c>
-      <c r="I8" s="69">
-        <f t="shared" si="0"/>
         <v>1.453125</v>
       </c>
       <c r="J8" s="70">
         <f t="shared" si="1"/>
-        <v>36.328125</v>
+        <v>7.0454545454545436E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2584,24 +2629,24 @@
         <v>2.4</v>
       </c>
       <c r="F9" s="72">
-        <f>E9/1000*$C$4</f>
-        <v>153.6</v>
+        <f t="shared" si="0"/>
+        <v>247.2</v>
       </c>
       <c r="G9" s="73">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="H9" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-      <c r="H9" s="49" t="str">
+        <v>F5</v>
+      </c>
+      <c r="I9" s="72">
         <f t="shared" si="3"/>
-        <v>0098</v>
-      </c>
-      <c r="I9" s="72">
-        <f t="shared" si="0"/>
-        <v>2.40625</v>
+        <v>2.3984375</v>
       </c>
       <c r="J9" s="74">
         <f t="shared" si="1"/>
-        <v>60.15625</v>
+        <v>0.11628787878787877</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -2613,29 +2658,29 @@
         <v>0.7</v>
       </c>
       <c r="F10" s="65">
-        <f>E10/1000*$C$4</f>
-        <v>44.8</v>
+        <f t="shared" si="0"/>
+        <v>29.599999999999987</v>
       </c>
       <c r="G10" s="66">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="H10" s="7" t="str">
+        <v>1C</v>
+      </c>
+      <c r="I10" s="65">
         <f t="shared" si="3"/>
-        <v>002B</v>
-      </c>
-      <c r="I10" s="65">
-        <f t="shared" si="0"/>
         <v>0.703125</v>
       </c>
       <c r="J10" s="67">
         <f t="shared" si="1"/>
-        <v>17.578125</v>
+        <v>3.4090909090909088E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" s="41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2644,24 +2689,24 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="69">
-        <f>E11/1000*$C$4</f>
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
       <c r="G11" s="1">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="H11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="H11" s="2" t="str">
+        <v>82</v>
+      </c>
+      <c r="I11" s="69">
         <f t="shared" si="3"/>
-        <v>005E</v>
-      </c>
-      <c r="I11" s="69">
-        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>7.272727272727271E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -2673,24 +2718,24 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F12" s="72">
-        <f>E12/1000*$C$4</f>
-        <v>147.19999999999999</v>
+        <f t="shared" si="0"/>
+        <v>234.39999999999998</v>
       </c>
       <c r="G12" s="73">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="H12" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="H12" s="49" t="str">
+        <v>E8</v>
+      </c>
+      <c r="I12" s="72">
         <f t="shared" si="3"/>
-        <v>0091</v>
-      </c>
-      <c r="I12" s="72">
-        <f t="shared" si="0"/>
         <v>2.296875</v>
       </c>
       <c r="J12" s="74">
         <f t="shared" si="1"/>
-        <v>57.421875</v>
+        <v>0.11136363636363635</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -2702,29 +2747,29 @@
         <v>0.5</v>
       </c>
       <c r="F13" s="65">
-        <f>E13/1000*$C$4</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>3.9999999999999933</v>
       </c>
       <c r="G13" s="66">
-        <f t="shared" ref="G13:G15" si="4">FLOOR(F13+0.5,1)-2</f>
-        <v>30</v>
+        <f t="shared" ref="G13:G15" si="5">FLOOR(F13+0.5,1)-2</f>
+        <v>2</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f t="shared" ref="H13:H15" si="5">DEC2HEX(G13,4)</f>
-        <v>001E</v>
+        <f t="shared" si="2"/>
+        <v>02</v>
       </c>
       <c r="I13" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="J13" s="67">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>2.4242424242424239E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C14" s="41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2734,24 +2779,24 @@
         <v>1.45</v>
       </c>
       <c r="F14" s="69">
-        <f>E14/1000*$C$4</f>
-        <v>92.8</v>
+        <f t="shared" si="0"/>
+        <v>125.6</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="4"/>
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>124</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>005B</v>
+        <f t="shared" si="2"/>
+        <v>7C</v>
       </c>
       <c r="I14" s="69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.453125</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="1"/>
-        <v>36.328125</v>
+        <v>7.0454545454545436E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -2763,115 +2808,115 @@
         <v>2.4</v>
       </c>
       <c r="F15" s="72">
-        <f>E15/1000*$C$4</f>
-        <v>153.6</v>
+        <f t="shared" si="0"/>
+        <v>247.2</v>
       </c>
       <c r="G15" s="73">
-        <f t="shared" si="4"/>
-        <v>152</v>
+        <f t="shared" si="5"/>
+        <v>245</v>
       </c>
       <c r="H15" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>0098</v>
+        <f t="shared" si="2"/>
+        <v>F5</v>
       </c>
       <c r="I15" s="72">
-        <f t="shared" si="0"/>
-        <v>2.40625</v>
+        <f t="shared" si="3"/>
+        <v>2.3984375</v>
       </c>
       <c r="J15" s="74">
         <f t="shared" si="1"/>
-        <v>60.15625</v>
+        <v>0.11628787878787877</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C16" s="37"/>
       <c r="D16" s="75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E16" s="64">
         <v>0.5</v>
       </c>
       <c r="F16" s="65">
-        <f>E16/1000*$C$4</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>3.9999999999999933</v>
       </c>
       <c r="G16" s="66">
         <f t="shared" ref="G16:G18" si="6">FLOOR(F16+0.5,1)-2</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" ref="H16:H18" si="7">DEC2HEX(G16,4)</f>
-        <v>001E</v>
+        <f t="shared" si="2"/>
+        <v>02</v>
       </c>
       <c r="I16" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="J16" s="67">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>2.4242424242424239E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C17" s="41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E17" s="68">
         <v>1.5</v>
       </c>
       <c r="F17" s="69">
-        <f>E17/1000*$C$4</f>
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="6"/>
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>005E</v>
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="I17" s="69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="J17" s="70">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>7.272727272727271E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C18" s="35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E18" s="71">
         <v>2.5</v>
       </c>
       <c r="F18" s="72">
-        <f>E18/1000*$C$4</f>
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="G18" s="73">
         <f t="shared" si="6"/>
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="H18" s="49" t="str">
-        <f t="shared" si="7"/>
-        <v>009E</v>
+        <f t="shared" si="2"/>
+        <v>FF</v>
       </c>
       <c r="I18" s="72">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>2.4765625</v>
       </c>
       <c r="J18" s="74">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>0.12007575757575756</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -2879,16 +2924,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -2896,20 +2941,42 @@
         <v>2048000</v>
       </c>
       <c r="B21" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="46">
-        <f>A21/B21/64</f>
-        <v>8000</v>
+        <f>A21/B21/24</f>
+        <v>42666.666666666664</v>
       </c>
       <c r="D21" s="46">
-        <f>C21/32</f>
-        <v>250</v>
-      </c>
-      <c r="E21" s="46">
+        <f>C21/20</f>
+        <v>2133.333333333333</v>
+      </c>
+      <c r="E21">
+        <f>D21/4/11</f>
+        <v>48.484848484848477</v>
+      </c>
+      <c r="F21">
+        <f>1000/E21</f>
+        <v>20.625000000000004</v>
+      </c>
+      <c r="G21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22">
         <f>1000/D21</f>
-        <v>4</v>
-      </c>
+        <v>0.46875000000000006</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F26" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/I2CPWM.xlsx
+++ b/I2CPWM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cxwao\Documents\GitHub2\GreenPAK_I2C2PWM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3967641-432E-4A93-BC4C-9E2C326C33A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C04BA-DA60-4C41-9202-C7F3E839C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2205" windowWidth="19470" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="2355" windowWidth="19470" windowHeight="10635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1963,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -2418,7 +2418,7 @@
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
